--- a/Комплектующие.xlsx
+++ b/Комплектующие.xlsx
@@ -5,17 +5,15 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhuma\Desktop\федотов_климакин варинат 5\Вариант5\Сессия 1\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhuma\Desktop\DeviceShop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Accessories" sheetId="1" r:id="rId1"/>
-    <sheet name="Unit" sheetId="5" r:id="rId2"/>
-    <sheet name="Article" sheetId="4" r:id="rId3"/>
-    <sheet name="TypeMaterial" sheetId="3" r:id="rId4"/>
+    <sheet name="TypeMaterial" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,31 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
-  <si>
-    <t>Д29</t>
-  </si>
-  <si>
-    <t>Д35</t>
-  </si>
-  <si>
-    <t>И50</t>
-  </si>
-  <si>
-    <t>З187</t>
-  </si>
-  <si>
-    <t>З195</t>
-  </si>
-  <si>
-    <t>З197</t>
-  </si>
-  <si>
-    <t>з245</t>
-  </si>
-  <si>
-    <t>В3</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>Видеокарта</t>
   </si>
@@ -65,15 +39,9 @@
     <t>Материнская плата</t>
   </si>
   <si>
-    <t>М12</t>
-  </si>
-  <si>
     <t>Intel Core i7 8700K OEM Coffee Lake 1151v2</t>
   </si>
   <si>
-    <t>И14</t>
-  </si>
-  <si>
     <t>Процессор</t>
   </si>
   <si>
@@ -134,22 +102,7 @@
     <t>AccessoriesId</t>
   </si>
   <si>
-    <t>ArticleId</t>
-  </si>
-  <si>
-    <t>ArticleName</t>
-  </si>
-  <si>
-    <t>шт</t>
-  </si>
-  <si>
     <t>Name</t>
-  </si>
-  <si>
-    <t>UnitId</t>
-  </si>
-  <si>
-    <t>UnitName</t>
   </si>
   <si>
     <t>IdArticle</t>
@@ -292,9 +245,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -305,6 +255,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -623,9 +576,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H14" sqref="H14"/>
+      <selection pane="bottomLeft" activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -643,28 +596,28 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
@@ -677,13 +630,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="5">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D2" s="13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E2" s="5">
         <v>282</v>
@@ -694,7 +647,7 @@
       <c r="G2" s="8">
         <v>2</v>
       </c>
-      <c r="H2" s="14">
+      <c r="H2" s="18">
         <v>24000</v>
       </c>
       <c r="I2" s="5"/>
@@ -708,13 +661,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="5">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D3" s="13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E3" s="5">
         <v>300</v>
@@ -725,7 +678,7 @@
       <c r="G3" s="8">
         <v>6</v>
       </c>
-      <c r="H3" s="14">
+      <c r="H3" s="18">
         <v>3112</v>
       </c>
       <c r="I3" s="5"/>
@@ -739,13 +692,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="5">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="D4" s="13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="5">
@@ -754,7 +707,7 @@
       <c r="G4" s="8">
         <v>8</v>
       </c>
-      <c r="H4" s="14">
+      <c r="H4" s="18">
         <v>28990</v>
       </c>
       <c r="I4" s="5"/>
@@ -768,13 +721,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="5">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D5" s="13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5">
@@ -783,7 +736,7 @@
       <c r="G5" s="8">
         <v>7</v>
       </c>
-      <c r="H5" s="14">
+      <c r="H5" s="18">
         <v>7947</v>
       </c>
       <c r="I5" s="5"/>
@@ -797,13 +750,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="5">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D6" s="13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5">
@@ -812,7 +765,7 @@
       <c r="G6" s="8">
         <v>7</v>
       </c>
-      <c r="H6" s="14">
+      <c r="H6" s="18">
         <v>4032</v>
       </c>
       <c r="I6" s="5"/>
@@ -826,13 +779,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="5">
+        <v>20</v>
+      </c>
+      <c r="C7" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="12" t="s">
-        <v>19</v>
-      </c>
       <c r="D7" s="13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5">
@@ -841,7 +794,7 @@
       <c r="G7" s="8">
         <v>4</v>
       </c>
-      <c r="H7" s="14">
+      <c r="H7" s="18">
         <v>6959</v>
       </c>
       <c r="I7" s="5"/>
@@ -854,25 +807,25 @@
       <c r="A8" s="11">
         <v>7</v>
       </c>
-      <c r="B8" s="15">
-        <v>4</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>21</v>
+      <c r="B8" s="14">
+        <v>15</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>11</v>
       </c>
       <c r="D8" s="13">
-        <v>1</v>
-      </c>
-      <c r="E8" s="17">
+        <v>3</v>
+      </c>
+      <c r="E8" s="16">
         <v>151</v>
       </c>
-      <c r="F8" s="18">
+      <c r="F8" s="17">
         <v>1</v>
       </c>
       <c r="G8" s="9">
         <v>5</v>
       </c>
-      <c r="H8" s="14">
+      <c r="H8" s="18">
         <v>2953</v>
       </c>
       <c r="I8" s="5"/>
@@ -885,25 +838,25 @@
       <c r="A9" s="11">
         <v>8</v>
       </c>
-      <c r="B9" s="15">
-        <v>5</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>23</v>
+      <c r="B9" s="14">
+        <v>16</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>13</v>
       </c>
       <c r="D9" s="13">
-        <v>1</v>
-      </c>
-      <c r="E9" s="17">
+        <v>3</v>
+      </c>
+      <c r="E9" s="16">
         <v>120</v>
       </c>
-      <c r="F9" s="18">
+      <c r="F9" s="17">
         <v>1</v>
       </c>
       <c r="G9" s="9">
         <v>3</v>
       </c>
-      <c r="H9" s="14">
+      <c r="H9" s="18">
         <v>6347</v>
       </c>
       <c r="I9" s="5"/>
@@ -916,25 +869,25 @@
       <c r="A10" s="11">
         <v>9</v>
       </c>
-      <c r="B10" s="15">
-        <v>6</v>
+      <c r="B10" s="14">
+        <v>17</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D10" s="13">
-        <v>1</v>
-      </c>
-      <c r="E10" s="17">
+        <v>3</v>
+      </c>
+      <c r="E10" s="16">
         <v>140</v>
       </c>
-      <c r="F10" s="18">
+      <c r="F10" s="17">
         <v>1</v>
       </c>
       <c r="G10" s="9">
         <v>1</v>
       </c>
-      <c r="H10" s="14">
+      <c r="H10" s="18">
         <v>22697</v>
       </c>
       <c r="I10" s="5"/>
@@ -947,23 +900,23 @@
       <c r="A11" s="11">
         <v>10</v>
       </c>
-      <c r="B11" s="15">
-        <v>7</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>28</v>
+      <c r="B11" s="14">
+        <v>18</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>18</v>
       </c>
       <c r="D11" s="13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E11" s="5"/>
-      <c r="F11" s="18">
+      <c r="F11" s="17">
         <v>1</v>
       </c>
       <c r="G11" s="9">
         <v>9</v>
       </c>
-      <c r="H11" s="14">
+      <c r="H11" s="18">
         <v>13590</v>
       </c>
       <c r="I11" s="5"/>
@@ -1140,164 +1093,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState ref="B2:B11">
-    <sortCondition ref="B2:B11"/>
-  </sortState>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="B1" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -1305,7 +1118,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -1313,7 +1126,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -1321,7 +1134,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -1329,7 +1142,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -1337,7 +1150,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -1345,7 +1158,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -1353,7 +1166,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -1361,7 +1174,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -1369,7 +1182,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/Комплектующие.xlsx
+++ b/Комплектующие.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980"/>
   </bookViews>
   <sheets>
     <sheet name="Accessories" sheetId="1" r:id="rId1"/>
@@ -576,9 +576,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M25"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F11" sqref="F11"/>
+      <selection pane="bottomLeft" activeCell="H10" sqref="A10:H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1095,8 +1095,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="A2:B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
